--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9975875164407445</v>
+        <v>0.9999960544946203</v>
       </c>
       <c r="E2">
-        <v>0.9975875164407445</v>
+        <v>0.9999960544946203</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9848517827141493</v>
+        <v>0.9999999975531375</v>
       </c>
       <c r="E3">
-        <v>0.9848517827141493</v>
+        <v>0.9999999975531375</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999996986967752</v>
+        <v>0.9999900415990234</v>
       </c>
       <c r="E4">
-        <v>0.9999996986967752</v>
+        <v>0.9999900415990234</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.06129043665801889</v>
+        <v>0.02055988863629653</v>
       </c>
       <c r="E5">
-        <v>0.06129043665801889</v>
+        <v>0.02055988863629653</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>9.132396448241429E-11</v>
+        <v>1.844144426982434E-10</v>
       </c>
       <c r="E6">
-        <v>9.132396448241429E-11</v>
+        <v>1.844144426982434E-10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.015286358962307E-07</v>
+        <v>1.039775356012195E-05</v>
       </c>
       <c r="E7">
-        <v>0.9999998984713641</v>
+        <v>0.9999896022464398</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999998880043</v>
+        <v>0.9999999989235941</v>
       </c>
       <c r="E8">
-        <v>1.11995746010507E-10</v>
+        <v>1.076405853339679E-09</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.699492771102084E-06</v>
+        <v>1.026191607291095E-05</v>
       </c>
       <c r="E9">
-        <v>0.9999903005072289</v>
+        <v>0.9999897380839271</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0007116264112211311</v>
+        <v>0.008343507701603926</v>
       </c>
       <c r="E11">
-        <v>0.9992883735887789</v>
+        <v>0.991656492298396</v>
       </c>
       <c r="F11">
-        <v>6.01896858215332</v>
+        <v>7.155652046203613</v>
       </c>
       <c r="G11">
         <v>0.4</v>
